--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3e-Plxnd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3e-Plxnd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Sema3e</t>
+  </si>
+  <si>
+    <t>Plxnd1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema3e</t>
-  </si>
-  <si>
-    <t>Plxnd1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1193766666666667</v>
+        <v>0.09039200000000001</v>
       </c>
       <c r="H2">
-        <v>0.35813</v>
+        <v>0.271176</v>
       </c>
       <c r="I2">
-        <v>0.06523701312008454</v>
+        <v>0.05153037083487731</v>
       </c>
       <c r="J2">
-        <v>0.06523701312008454</v>
+        <v>0.05153037083487731</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>87.82520466666666</v>
+        <v>115.5833383333333</v>
       </c>
       <c r="N2">
-        <v>263.475614</v>
+        <v>346.750015</v>
       </c>
       <c r="O2">
-        <v>0.4113681414249258</v>
+        <v>0.5424469830058291</v>
       </c>
       <c r="P2">
-        <v>0.4113681414249257</v>
+        <v>0.5424469830058291</v>
       </c>
       <c r="Q2">
-        <v>10.48428018242445</v>
+        <v>10.44780911862667</v>
       </c>
       <c r="R2">
-        <v>94.35852164182</v>
+        <v>94.03028206764002</v>
       </c>
       <c r="S2">
-        <v>0.02683642883932267</v>
+        <v>0.02795249419255076</v>
       </c>
       <c r="T2">
-        <v>0.02683642883932267</v>
+        <v>0.02795249419255076</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1193766666666667</v>
+        <v>0.09039200000000001</v>
       </c>
       <c r="H3">
-        <v>0.35813</v>
+        <v>0.271176</v>
       </c>
       <c r="I3">
-        <v>0.06523701312008454</v>
+        <v>0.05153037083487731</v>
       </c>
       <c r="J3">
-        <v>0.06523701312008454</v>
+        <v>0.05153037083487731</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>22.364335</v>
       </c>
       <c r="N3">
-        <v>67.09300500000001</v>
+        <v>67.09300499999999</v>
       </c>
       <c r="O3">
-        <v>0.1047532420570173</v>
+        <v>0.1049586058216753</v>
       </c>
       <c r="P3">
-        <v>0.1047532420570173</v>
+        <v>0.1049586058216753</v>
       </c>
       <c r="Q3">
-        <v>2.669779764516667</v>
+        <v>2.02155696932</v>
       </c>
       <c r="R3">
-        <v>24.02801788065</v>
+        <v>18.19401272388</v>
       </c>
       <c r="S3">
-        <v>0.006833788626445028</v>
+        <v>0.00540855588030264</v>
       </c>
       <c r="T3">
-        <v>0.006833788626445027</v>
+        <v>0.00540855588030264</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1193766666666667</v>
+        <v>0.09039200000000001</v>
       </c>
       <c r="H4">
-        <v>0.35813</v>
+        <v>0.271176</v>
       </c>
       <c r="I4">
-        <v>0.06523701312008454</v>
+        <v>0.05153037083487731</v>
       </c>
       <c r="J4">
-        <v>0.06523701312008454</v>
+        <v>0.05153037083487731</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.00656633333333</v>
+        <v>24.17635033333334</v>
       </c>
       <c r="N4">
-        <v>96.019699</v>
+        <v>72.52905100000001</v>
       </c>
       <c r="O4">
-        <v>0.1499168918069617</v>
+        <v>0.1134626191587213</v>
       </c>
       <c r="P4">
-        <v>0.1499168918069617</v>
+        <v>0.1134626191587213</v>
       </c>
       <c r="Q4">
-        <v>3.820837200318889</v>
+        <v>2.185348659330667</v>
       </c>
       <c r="R4">
-        <v>34.38753480287</v>
+        <v>19.66813793397601</v>
       </c>
       <c r="S4">
-        <v>0.009780130237733055</v>
+        <v>0.005846770841145364</v>
       </c>
       <c r="T4">
-        <v>0.009780130237733053</v>
+        <v>0.005846770841145365</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1193766666666667</v>
+        <v>0.09039200000000001</v>
       </c>
       <c r="H5">
-        <v>0.35813</v>
+        <v>0.271176</v>
       </c>
       <c r="I5">
-        <v>0.06523701312008454</v>
+        <v>0.05153037083487731</v>
       </c>
       <c r="J5">
-        <v>0.06523701312008454</v>
+        <v>0.05153037083487731</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.84771733333333</v>
+        <v>13.89256133333333</v>
       </c>
       <c r="N5">
-        <v>83.54315199999999</v>
+        <v>41.677684</v>
       </c>
       <c r="O5">
-        <v>0.1304370854109484</v>
+        <v>0.06519951828832743</v>
       </c>
       <c r="P5">
-        <v>0.1304370854109484</v>
+        <v>0.06519951828832744</v>
       </c>
       <c r="Q5">
-        <v>3.324367669528889</v>
+        <v>1.255776404042667</v>
       </c>
       <c r="R5">
-        <v>29.91930902576</v>
+        <v>11.301987636384</v>
       </c>
       <c r="S5">
-        <v>0.008509325852299628</v>
+        <v>0.003359755355652877</v>
       </c>
       <c r="T5">
-        <v>0.008509325852299627</v>
+        <v>0.003359755355652878</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1193766666666667</v>
+        <v>0.09039200000000001</v>
       </c>
       <c r="H6">
-        <v>0.35813</v>
+        <v>0.271176</v>
       </c>
       <c r="I6">
-        <v>0.06523701312008454</v>
+        <v>0.05153037083487731</v>
       </c>
       <c r="J6">
-        <v>0.06523701312008454</v>
+        <v>0.05153037083487731</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.206563333333333</v>
+        <v>6.789615333333333</v>
       </c>
       <c r="N6">
-        <v>21.61969</v>
+        <v>20.368846</v>
       </c>
       <c r="O6">
-        <v>0.03375512275486358</v>
+        <v>0.03186450924886145</v>
       </c>
       <c r="P6">
-        <v>0.03375512275486357</v>
+        <v>0.03186450924886145</v>
       </c>
       <c r="Q6">
-        <v>0.8602955088555555</v>
+        <v>0.6137269092106667</v>
       </c>
       <c r="R6">
-        <v>7.7426595797</v>
+        <v>5.523542182896</v>
       </c>
       <c r="S6">
-        <v>0.002202083386029099</v>
+        <v>0.001641989978065208</v>
       </c>
       <c r="T6">
-        <v>0.002202083386029099</v>
+        <v>0.001641989978065208</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1193766666666667</v>
+        <v>0.09039200000000001</v>
       </c>
       <c r="H7">
-        <v>0.35813</v>
+        <v>0.271176</v>
       </c>
       <c r="I7">
-        <v>0.06523701312008454</v>
+        <v>0.05153037083487731</v>
       </c>
       <c r="J7">
-        <v>0.06523701312008454</v>
+        <v>0.05153037083487731</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.24501033333333</v>
+        <v>30.271468</v>
       </c>
       <c r="N7">
-        <v>108.735031</v>
+        <v>90.814404</v>
       </c>
       <c r="O7">
-        <v>0.1697695165452834</v>
+        <v>0.1420677644765855</v>
       </c>
       <c r="P7">
-        <v>0.1697695165452833</v>
+        <v>0.1420677644765855</v>
       </c>
       <c r="Q7">
-        <v>4.326808516892222</v>
+        <v>2.736298535456</v>
       </c>
       <c r="R7">
-        <v>38.94127665203001</v>
+        <v>24.626686819104</v>
       </c>
       <c r="S7">
-        <v>0.01107525617825506</v>
+        <v>0.007320804587160458</v>
       </c>
       <c r="T7">
-        <v>0.01107525617825506</v>
+        <v>0.00732080458716046</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.706864333333333</v>
+        <v>0.1193766666666667</v>
       </c>
       <c r="H8">
-        <v>5.120593</v>
+        <v>0.35813</v>
       </c>
       <c r="I8">
-        <v>0.9327679689599111</v>
+        <v>0.06805385324326123</v>
       </c>
       <c r="J8">
-        <v>0.9327679689599111</v>
+        <v>0.06805385324326123</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>87.82520466666666</v>
+        <v>115.5833383333333</v>
       </c>
       <c r="N8">
-        <v>263.475614</v>
+        <v>346.750015</v>
       </c>
       <c r="O8">
-        <v>0.4113681414249258</v>
+        <v>0.5424469830058291</v>
       </c>
       <c r="P8">
-        <v>0.4113681414249257</v>
+        <v>0.5424469830058291</v>
       </c>
       <c r="Q8">
-        <v>149.9057094132335</v>
+        <v>13.79795365243889</v>
       </c>
       <c r="R8">
-        <v>1349.151384719102</v>
+        <v>124.18158287195</v>
       </c>
       <c r="S8">
-        <v>0.3837110257717415</v>
+        <v>0.03691560737372851</v>
       </c>
       <c r="T8">
-        <v>0.3837110257717414</v>
+        <v>0.03691560737372851</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.706864333333333</v>
+        <v>0.1193766666666667</v>
       </c>
       <c r="H9">
-        <v>5.120593</v>
+        <v>0.35813</v>
       </c>
       <c r="I9">
-        <v>0.9327679689599111</v>
+        <v>0.06805385324326123</v>
       </c>
       <c r="J9">
-        <v>0.9327679689599111</v>
+        <v>0.06805385324326123</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>22.364335</v>
       </c>
       <c r="N9">
-        <v>67.09300500000001</v>
+        <v>67.09300499999999</v>
       </c>
       <c r="O9">
-        <v>0.1047532420570173</v>
+        <v>0.1049586058216753</v>
       </c>
       <c r="P9">
-        <v>0.1047532420570173</v>
+        <v>0.1049586058216753</v>
       </c>
       <c r="Q9">
-        <v>38.17288575021833</v>
+        <v>2.669779764516667</v>
       </c>
       <c r="R9">
-        <v>343.555971751965</v>
+        <v>24.02801788065</v>
       </c>
       <c r="S9">
-        <v>0.09771046883548996</v>
+        <v>0.007142837557205593</v>
       </c>
       <c r="T9">
-        <v>0.09771046883548995</v>
+        <v>0.007142837557205595</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.706864333333333</v>
+        <v>0.1193766666666667</v>
       </c>
       <c r="H10">
-        <v>5.120593</v>
+        <v>0.35813</v>
       </c>
       <c r="I10">
-        <v>0.9327679689599111</v>
+        <v>0.06805385324326123</v>
       </c>
       <c r="J10">
-        <v>0.9327679689599111</v>
+        <v>0.06805385324326123</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.00656633333333</v>
+        <v>24.17635033333334</v>
       </c>
       <c r="N10">
-        <v>96.019699</v>
+        <v>72.52905100000001</v>
       </c>
       <c r="O10">
-        <v>0.1499168918069617</v>
+        <v>0.1134626191587213</v>
       </c>
       <c r="P10">
-        <v>0.1499168918069617</v>
+        <v>0.1134626191587213</v>
       </c>
       <c r="Q10">
-        <v>54.6308665068341</v>
+        <v>2.886092114958889</v>
       </c>
       <c r="R10">
-        <v>491.677798561507</v>
+        <v>25.97482903463001</v>
       </c>
       <c r="S10">
-        <v>0.1398376746835624</v>
+        <v>0.00772156843282366</v>
       </c>
       <c r="T10">
-        <v>0.1398376746835624</v>
+        <v>0.007721568432823662</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.706864333333333</v>
+        <v>0.1193766666666667</v>
       </c>
       <c r="H11">
-        <v>5.120593</v>
+        <v>0.35813</v>
       </c>
       <c r="I11">
-        <v>0.9327679689599111</v>
+        <v>0.06805385324326123</v>
       </c>
       <c r="J11">
-        <v>0.9327679689599111</v>
+        <v>0.06805385324326123</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.84771733333333</v>
+        <v>13.89256133333333</v>
       </c>
       <c r="N11">
-        <v>83.54315199999999</v>
+        <v>41.677684</v>
       </c>
       <c r="O11">
-        <v>0.1304370854109484</v>
+        <v>0.06519951828832743</v>
       </c>
       <c r="P11">
-        <v>0.1304370854109484</v>
+        <v>0.06519951828832744</v>
       </c>
       <c r="Q11">
-        <v>47.53227548101511</v>
+        <v>1.658447663435556</v>
       </c>
       <c r="R11">
-        <v>427.7904793291359</v>
+        <v>14.92602897092</v>
       </c>
       <c r="S11">
-        <v>0.1216675352358208</v>
+        <v>0.004437078449125161</v>
       </c>
       <c r="T11">
-        <v>0.1216675352358208</v>
+        <v>0.004437078449125162</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,14 +1148,14 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.706864333333333</v>
+        <v>0.1193766666666667</v>
       </c>
       <c r="H12">
-        <v>5.120593</v>
+        <v>0.35813</v>
       </c>
       <c r="I12">
-        <v>0.9327679689599111</v>
+        <v>0.06805385324326123</v>
       </c>
       <c r="J12">
-        <v>0.9327679689599111</v>
+        <v>0.06805385324326123</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.206563333333333</v>
+        <v>6.789615333333333</v>
       </c>
       <c r="N12">
-        <v>21.61969</v>
+        <v>20.368846</v>
       </c>
       <c r="O12">
-        <v>0.03375512275486358</v>
+        <v>0.03186450924886145</v>
       </c>
       <c r="P12">
-        <v>0.03375512275486357</v>
+        <v>0.03186450924886145</v>
       </c>
       <c r="Q12">
-        <v>12.30062591957444</v>
+        <v>0.8105216464422222</v>
       </c>
       <c r="R12">
-        <v>110.70563327617</v>
+        <v>7.294694817979999</v>
       </c>
       <c r="S12">
-        <v>0.03148569729404658</v>
+        <v>0.002168502636090557</v>
       </c>
       <c r="T12">
-        <v>0.03148569729404657</v>
+        <v>0.002168502636090557</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.706864333333333</v>
+        <v>0.1193766666666667</v>
       </c>
       <c r="H13">
-        <v>5.120593</v>
+        <v>0.35813</v>
       </c>
       <c r="I13">
-        <v>0.9327679689599111</v>
+        <v>0.06805385324326123</v>
       </c>
       <c r="J13">
-        <v>0.9327679689599111</v>
+        <v>0.06805385324326123</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.24501033333333</v>
+        <v>30.271468</v>
       </c>
       <c r="N13">
-        <v>108.735031</v>
+        <v>90.814404</v>
       </c>
       <c r="O13">
-        <v>0.1697695165452834</v>
+        <v>0.1420677644765855</v>
       </c>
       <c r="P13">
-        <v>0.1697695165452833</v>
+        <v>0.1420677644765855</v>
       </c>
       <c r="Q13">
-        <v>61.86531539926477</v>
+        <v>3.613706944946667</v>
       </c>
       <c r="R13">
-        <v>556.787838593383</v>
+        <v>32.52336250452</v>
       </c>
       <c r="S13">
-        <v>0.15835556713925</v>
+        <v>0.009668258794287749</v>
       </c>
       <c r="T13">
-        <v>0.1583555671392499</v>
+        <v>0.009668258794287751</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.003650666666666667</v>
+        <v>1.527029333333333</v>
       </c>
       <c r="H14">
-        <v>0.010952</v>
+        <v>4.581087999999999</v>
       </c>
       <c r="I14">
-        <v>0.001995017920004372</v>
+        <v>0.8705238054518332</v>
       </c>
       <c r="J14">
-        <v>0.001995017920004372</v>
+        <v>0.8705238054518333</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>87.82520466666666</v>
+        <v>115.5833383333333</v>
       </c>
       <c r="N14">
-        <v>263.475614</v>
+        <v>346.750015</v>
       </c>
       <c r="O14">
-        <v>0.4113681414249258</v>
+        <v>0.5424469830058291</v>
       </c>
       <c r="P14">
-        <v>0.4113681414249257</v>
+        <v>0.5424469830058291</v>
       </c>
       <c r="Q14">
-        <v>0.3206205471697778</v>
+        <v>176.4991480795911</v>
       </c>
       <c r="R14">
-        <v>2.885584924528</v>
+        <v>1588.49233271632</v>
       </c>
       <c r="S14">
-        <v>0.0008206868138616199</v>
+        <v>0.4722130119021002</v>
       </c>
       <c r="T14">
-        <v>0.0008206868138616197</v>
+        <v>0.4722130119021002</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.003650666666666667</v>
+        <v>1.527029333333333</v>
       </c>
       <c r="H15">
-        <v>0.010952</v>
+        <v>4.581087999999999</v>
       </c>
       <c r="I15">
-        <v>0.001995017920004372</v>
+        <v>0.8705238054518332</v>
       </c>
       <c r="J15">
-        <v>0.001995017920004372</v>
+        <v>0.8705238054518333</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>22.364335</v>
       </c>
       <c r="N15">
-        <v>67.09300500000001</v>
+        <v>67.09300499999999</v>
       </c>
       <c r="O15">
-        <v>0.1047532420570173</v>
+        <v>0.1049586058216753</v>
       </c>
       <c r="P15">
-        <v>0.1047532420570173</v>
+        <v>0.1049586058216753</v>
       </c>
       <c r="Q15">
-        <v>0.08164473230666666</v>
+        <v>34.15099556549333</v>
       </c>
       <c r="R15">
-        <v>0.7348025907600001</v>
+        <v>307.3589600894399</v>
       </c>
       <c r="S15">
-        <v>0.0002089845950823052</v>
+        <v>0.09136896495480369</v>
       </c>
       <c r="T15">
-        <v>0.0002089845950823051</v>
+        <v>0.09136896495480373</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.003650666666666667</v>
+        <v>1.527029333333333</v>
       </c>
       <c r="H16">
-        <v>0.010952</v>
+        <v>4.581087999999999</v>
       </c>
       <c r="I16">
-        <v>0.001995017920004372</v>
+        <v>0.8705238054518332</v>
       </c>
       <c r="J16">
-        <v>0.001995017920004372</v>
+        <v>0.8705238054518333</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>32.00656633333333</v>
+        <v>24.17635033333334</v>
       </c>
       <c r="N16">
-        <v>96.019699</v>
+        <v>72.52905100000001</v>
       </c>
       <c r="O16">
-        <v>0.1499168918069617</v>
+        <v>0.1134626191587213</v>
       </c>
       <c r="P16">
-        <v>0.1499168918069617</v>
+        <v>0.1134626191587213</v>
       </c>
       <c r="Q16">
-        <v>0.1168453048275555</v>
+        <v>36.91799613194311</v>
       </c>
       <c r="R16">
-        <v>1.051607743448</v>
+        <v>332.261965187488</v>
       </c>
       <c r="S16">
-        <v>0.0002990868856662453</v>
+        <v>0.09877191100658216</v>
       </c>
       <c r="T16">
-        <v>0.0002990868856662452</v>
+        <v>0.09877191100658218</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.003650666666666667</v>
+        <v>1.527029333333333</v>
       </c>
       <c r="H17">
-        <v>0.010952</v>
+        <v>4.581087999999999</v>
       </c>
       <c r="I17">
-        <v>0.001995017920004372</v>
+        <v>0.8705238054518332</v>
       </c>
       <c r="J17">
-        <v>0.001995017920004372</v>
+        <v>0.8705238054518333</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.84771733333333</v>
+        <v>13.89256133333333</v>
       </c>
       <c r="N17">
-        <v>83.54315199999999</v>
+        <v>41.677684</v>
       </c>
       <c r="O17">
-        <v>0.1304370854109484</v>
+        <v>0.06519951828832743</v>
       </c>
       <c r="P17">
-        <v>0.1304370854109484</v>
+        <v>0.06519951828832744</v>
       </c>
       <c r="Q17">
-        <v>0.1016627334115555</v>
+        <v>21.21434867113244</v>
       </c>
       <c r="R17">
-        <v>0.9149646007039999</v>
+        <v>190.929138040192</v>
       </c>
       <c r="S17">
-        <v>0.0002602243228279829</v>
+        <v>0.05675773277398118</v>
       </c>
       <c r="T17">
-        <v>0.0002602243228279829</v>
+        <v>0.0567577327739812</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.003650666666666667</v>
+        <v>1.527029333333333</v>
       </c>
       <c r="H18">
-        <v>0.010952</v>
+        <v>4.581087999999999</v>
       </c>
       <c r="I18">
-        <v>0.001995017920004372</v>
+        <v>0.8705238054518332</v>
       </c>
       <c r="J18">
-        <v>0.001995017920004372</v>
+        <v>0.8705238054518333</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.206563333333333</v>
+        <v>6.789615333333333</v>
       </c>
       <c r="N18">
-        <v>21.61969</v>
+        <v>20.368846</v>
       </c>
       <c r="O18">
-        <v>0.03375512275486358</v>
+        <v>0.03186450924886145</v>
       </c>
       <c r="P18">
-        <v>0.03375512275486357</v>
+        <v>0.03186450924886145</v>
       </c>
       <c r="Q18">
-        <v>0.02630876054222222</v>
+        <v>10.36794177604978</v>
       </c>
       <c r="R18">
-        <v>0.23677884488</v>
+        <v>93.31147598444798</v>
       </c>
       <c r="S18">
-        <v>6.734207478790019E-05</v>
+        <v>0.02773881385017401</v>
       </c>
       <c r="T18">
-        <v>6.734207478790018E-05</v>
+        <v>0.02773881385017401</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.527029333333333</v>
+      </c>
+      <c r="H19">
+        <v>4.581087999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.8705238054518332</v>
+      </c>
+      <c r="J19">
+        <v>0.8705238054518333</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>30.271468</v>
+      </c>
+      <c r="N19">
+        <v>90.814404</v>
+      </c>
+      <c r="O19">
+        <v>0.1420677644765855</v>
+      </c>
+      <c r="P19">
+        <v>0.1420677644765855</v>
+      </c>
+      <c r="Q19">
+        <v>46.22541959906133</v>
+      </c>
+      <c r="R19">
+        <v>416.0287763915519</v>
+      </c>
+      <c r="S19">
+        <v>0.123673370964192</v>
+      </c>
+      <c r="T19">
+        <v>0.123673370964192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.017352</v>
+      </c>
+      <c r="H20">
+        <v>0.052056</v>
+      </c>
+      <c r="I20">
+        <v>0.009891970470028219</v>
+      </c>
+      <c r="J20">
+        <v>0.009891970470028219</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>115.5833383333333</v>
+      </c>
+      <c r="N20">
+        <v>346.750015</v>
+      </c>
+      <c r="O20">
+        <v>0.5424469830058291</v>
+      </c>
+      <c r="P20">
+        <v>0.5424469830058291</v>
+      </c>
+      <c r="Q20">
+        <v>2.00560208676</v>
+      </c>
+      <c r="R20">
+        <v>18.05041878084</v>
+      </c>
+      <c r="S20">
+        <v>0.00536586953744956</v>
+      </c>
+      <c r="T20">
+        <v>0.00536586953744956</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.017352</v>
+      </c>
+      <c r="H21">
+        <v>0.052056</v>
+      </c>
+      <c r="I21">
+        <v>0.009891970470028219</v>
+      </c>
+      <c r="J21">
+        <v>0.009891970470028219</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>22.364335</v>
+      </c>
+      <c r="N21">
+        <v>67.09300499999999</v>
+      </c>
+      <c r="O21">
+        <v>0.1049586058216753</v>
+      </c>
+      <c r="P21">
+        <v>0.1049586058216753</v>
+      </c>
+      <c r="Q21">
+        <v>0.3880659409199999</v>
+      </c>
+      <c r="R21">
+        <v>3.49259346828</v>
+      </c>
+      <c r="S21">
+        <v>0.001038247429363344</v>
+      </c>
+      <c r="T21">
+        <v>0.001038247429363344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.017352</v>
+      </c>
+      <c r="H22">
+        <v>0.052056</v>
+      </c>
+      <c r="I22">
+        <v>0.009891970470028219</v>
+      </c>
+      <c r="J22">
+        <v>0.009891970470028219</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>24.17635033333334</v>
+      </c>
+      <c r="N22">
+        <v>72.52905100000001</v>
+      </c>
+      <c r="O22">
+        <v>0.1134626191587213</v>
+      </c>
+      <c r="P22">
+        <v>0.1134626191587213</v>
+      </c>
+      <c r="Q22">
+        <v>0.419508030984</v>
+      </c>
+      <c r="R22">
+        <v>3.775572278856</v>
+      </c>
+      <c r="S22">
+        <v>0.001122368878170129</v>
+      </c>
+      <c r="T22">
+        <v>0.00112236887817013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G19">
-        <v>0.003650666666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.010952</v>
-      </c>
-      <c r="I19">
-        <v>0.001995017920004372</v>
-      </c>
-      <c r="J19">
-        <v>0.001995017920004372</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>36.24501033333333</v>
-      </c>
-      <c r="N19">
-        <v>108.735031</v>
-      </c>
-      <c r="O19">
-        <v>0.1697695165452834</v>
-      </c>
-      <c r="P19">
-        <v>0.1697695165452833</v>
-      </c>
-      <c r="Q19">
-        <v>0.1323184510568889</v>
-      </c>
-      <c r="R19">
-        <v>1.190866059512</v>
-      </c>
-      <c r="S19">
-        <v>0.000338693227778319</v>
-      </c>
-      <c r="T19">
-        <v>0.000338693227778319</v>
+      <c r="G23">
+        <v>0.017352</v>
+      </c>
+      <c r="H23">
+        <v>0.052056</v>
+      </c>
+      <c r="I23">
+        <v>0.009891970470028219</v>
+      </c>
+      <c r="J23">
+        <v>0.009891970470028219</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>13.89256133333333</v>
+      </c>
+      <c r="N23">
+        <v>41.677684</v>
+      </c>
+      <c r="O23">
+        <v>0.06519951828832743</v>
+      </c>
+      <c r="P23">
+        <v>0.06519951828832744</v>
+      </c>
+      <c r="Q23">
+        <v>0.241063724256</v>
+      </c>
+      <c r="R23">
+        <v>2.169573518304</v>
+      </c>
+      <c r="S23">
+        <v>0.0006449517095681997</v>
+      </c>
+      <c r="T23">
+        <v>0.0006449517095681999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.017352</v>
+      </c>
+      <c r="H24">
+        <v>0.052056</v>
+      </c>
+      <c r="I24">
+        <v>0.009891970470028219</v>
+      </c>
+      <c r="J24">
+        <v>0.009891970470028219</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.789615333333333</v>
+      </c>
+      <c r="N24">
+        <v>20.368846</v>
+      </c>
+      <c r="O24">
+        <v>0.03186450924886145</v>
+      </c>
+      <c r="P24">
+        <v>0.03186450924886145</v>
+      </c>
+      <c r="Q24">
+        <v>0.117813405264</v>
+      </c>
+      <c r="R24">
+        <v>1.060320647376</v>
+      </c>
+      <c r="S24">
+        <v>0.0003152027845316785</v>
+      </c>
+      <c r="T24">
+        <v>0.0003152027845316785</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.017352</v>
+      </c>
+      <c r="H25">
+        <v>0.052056</v>
+      </c>
+      <c r="I25">
+        <v>0.009891970470028219</v>
+      </c>
+      <c r="J25">
+        <v>0.009891970470028219</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>30.271468</v>
+      </c>
+      <c r="N25">
+        <v>90.814404</v>
+      </c>
+      <c r="O25">
+        <v>0.1420677644765855</v>
+      </c>
+      <c r="P25">
+        <v>0.1420677644765855</v>
+      </c>
+      <c r="Q25">
+        <v>0.525270512736</v>
+      </c>
+      <c r="R25">
+        <v>4.727434614623999</v>
+      </c>
+      <c r="S25">
+        <v>0.001405330130945308</v>
+      </c>
+      <c r="T25">
+        <v>0.001405330130945308</v>
       </c>
     </row>
   </sheetData>
